--- a/DataParser/results/udp-100-viper-trial1.xlsx
+++ b/DataParser/results/udp-100-viper-trial1.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,6 +418,11 @@
           <t>checksum [-2:]</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>frame_reltime</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -473,6 +478,11 @@
           <t>5d 35</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>17.911464000</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -528,6 +538,11 @@
           <t>39 13</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>17.912999000</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -583,6 +598,11 @@
           <t>cd 67</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>17.913510000</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -638,6 +658,11 @@
           <t>89 98</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>17.915559000</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -693,6 +718,11 @@
           <t>38 06</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>17.916071000</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -748,6 +778,11 @@
           <t>62 b5</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>18.011809000</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -803,6 +838,11 @@
           <t>9e e0</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>18.012320000</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -858,6 +898,11 @@
           <t>20 3c</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>18.014372000</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -913,6 +958,11 @@
           <t>b4 e2</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>18.014880000</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -968,6 +1018,11 @@
           <t>3a 2a</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18.016416000</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1023,6 +1078,11 @@
           <t>83 09</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>18.111653000</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1078,6 +1138,11 @@
           <t>9c 5b</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>18.113189000</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1133,6 +1198,11 @@
           <t>ff 3c</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>18.113700000</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1188,6 +1258,11 @@
           <t>1d ec</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>18.115237000</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1243,6 +1318,11 @@
           <t>10 e7</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>18.116772000</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1298,6 +1378,11 @@
           <t>f5 4a</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>18.212011000</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1353,6 +1438,11 @@
           <t>c9 77</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>18.212523000</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1408,6 +1498,11 @@
           <t>cb 2f</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18.214057000</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1463,6 +1558,11 @@
           <t>aa 3c</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>18.215083000</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1518,6 +1618,11 @@
           <t>86 7c</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18.216620000</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1573,6 +1678,11 @@
           <t>47 0a</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>18.311852000</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1628,6 +1738,11 @@
           <t>5f 41</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>18.312876000</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1683,6 +1798,11 @@
           <t>29 0d</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>18.313899000</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1738,6 +1858,11 @@
           <t>a6 f3</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>18.315435000</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1793,6 +1918,11 @@
           <t>1e e9</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>18.315948000</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1848,6 +1978,11 @@
           <t>15 45</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>18.413228000</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1903,6 +2038,11 @@
           <t>30 23</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>18.415274000</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1958,6 +2098,11 @@
           <t>6f a4</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>18.416811000</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2013,6 +2158,11 @@
           <t>10 27</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>18.418858000</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2068,6 +2218,11 @@
           <t>cd 0d</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18.433706000</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2123,6 +2278,11 @@
           <t>28 d0</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>18.513578000</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2178,6 +2338,11 @@
           <t>44 a4</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>18.514603000</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2233,6 +2398,11 @@
           <t>d7 48</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>18.517163000</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2288,6 +2458,11 @@
           <t>68 2a</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>18.517675000</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2343,6 +2518,11 @@
           <t>ff d7</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>18.613930000</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2398,6 +2578,11 @@
           <t>a1 6e</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>18.614441000</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2453,6 +2638,11 @@
           <t>c2 d0</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>18.615978000</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2508,6 +2698,11 @@
           <t>be d9</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>18.617514000</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2563,6 +2758,11 @@
           <t>4d 6d</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18.618025000</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2618,6 +2818,11 @@
           <t>7d 95</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>18.719402000</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2673,6 +2878,11 @@
           <t>0b ab</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>18.719403000</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2728,6 +2938,11 @@
           <t>5c 7e</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>18.719403000</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2783,6 +2998,11 @@
           <t>ca 9e</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>18.719915000</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2838,6 +3058,11 @@
           <t>91 3d</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>18.719915000</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2893,6 +3118,11 @@
           <t>3f 22</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>18.813610000</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2948,6 +3178,11 @@
           <t>c7 6d</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>18.815147000</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3003,6 +3238,11 @@
           <t>ea 71</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>18.815660000</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3058,6 +3298,11 @@
           <t>03 39</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>18.817195000</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3113,6 +3358,11 @@
           <t>42 9f</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>18.818730000</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3168,6 +3418,11 @@
           <t>c8 c7</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>18.875563000</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3223,6 +3478,11 @@
           <t>bf f1</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>18.914027000</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3278,6 +3538,11 @@
           <t>16 76</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>18.914539000</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3333,6 +3598,11 @@
           <t>cb fa</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>18.916075000</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3388,6 +3658,11 @@
           <t>cf 21</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>18.917099000</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3443,6 +3718,11 @@
           <t>71 80</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>18.965739000</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3498,6 +3778,11 @@
           <t>de d1</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>19.015405000</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3553,6 +3838,11 @@
           <t>97 6b</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>19.016428000</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3608,6 +3898,11 @@
           <t>f4 c4</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>19.017451000</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3663,6 +3958,11 @@
           <t>f4 ed</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>19.019499000</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3718,6 +4018,11 @@
           <t>99 dd</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>19.020011000</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3773,6 +4078,11 @@
           <t>c0 3d</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>19.115756000</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3828,6 +4138,11 @@
           <t>48 c2</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>19.116780000</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3883,6 +4198,11 @@
           <t>43 58</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>19.118316000</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3938,6 +4258,11 @@
           <t>ce b4</t>
         </is>
       </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>19.118827000</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3993,6 +4318,11 @@
           <t>96 15</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>19.120364000</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4048,6 +4378,11 @@
           <t>d5 01</t>
         </is>
       </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>19.216107000</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4103,6 +4438,11 @@
           <t>1c 6d</t>
         </is>
       </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>19.216619000</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4158,6 +4498,11 @@
           <t>49 96</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>19.218154000</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4213,6 +4558,11 @@
           <t>44 0d</t>
         </is>
       </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>19.219179000</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4268,6 +4618,11 @@
           <t>02 04</t>
         </is>
       </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>19.220715000</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4323,6 +4678,11 @@
           <t>fd 33</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>19.315436000</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4378,6 +4738,11 @@
           <t>b0 5a</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>19.316458000</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4433,6 +4798,11 @@
           <t>33 98</t>
         </is>
       </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>19.317482000</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4488,6 +4858,11 @@
           <t>18 6a</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>19.319020000</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4543,6 +4918,11 @@
           <t>1e ed</t>
         </is>
       </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>19.320042000</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4598,6 +4978,11 @@
           <t>7e 08</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>19.415788000</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4653,6 +5038,11 @@
           <t>a3 de</t>
         </is>
       </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>19.416300000</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4708,6 +5098,11 @@
           <t>2d 19</t>
         </is>
       </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>19.418345000</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4763,6 +5158,11 @@
           <t>1e 67</t>
         </is>
       </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>19.418860000</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4818,6 +5218,11 @@
           <t>c5 bf</t>
         </is>
       </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>19.420395000</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4873,6 +5278,11 @@
           <t>b4 7e</t>
         </is>
       </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>19.435756000</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4928,6 +5338,11 @@
           <t>47 2d</t>
         </is>
       </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>19.515627000</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4983,6 +5398,11 @@
           <t>7e bc</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>19.516651000</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -5038,6 +5458,11 @@
           <t>d1 85</t>
         </is>
       </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>19.517676000</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5093,6 +5518,11 @@
           <t>8d a3</t>
         </is>
       </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>19.519210000</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5148,6 +5578,11 @@
           <t>d6 1f</t>
         </is>
       </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>19.519724000</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5203,6 +5638,11 @@
           <t>19 15</t>
         </is>
       </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>19.615467000</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5258,6 +5698,11 @@
           <t>00 2d</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>19.617004000</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5313,6 +5758,11 @@
           <t>b8 b4</t>
         </is>
       </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>19.618028000</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5368,6 +5818,11 @@
           <t>a2 1c</t>
         </is>
       </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>19.619052000</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5423,6 +5878,11 @@
           <t>d6 4f</t>
         </is>
       </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>19.620588000</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5478,6 +5938,11 @@
           <t>c2 b1</t>
         </is>
       </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>19.715819000</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5533,6 +5998,11 @@
           <t>b5 7f</t>
         </is>
       </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>19.716843000</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5588,6 +6058,11 @@
           <t>b2 87</t>
         </is>
       </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>19.717867000</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5643,6 +6118,11 @@
           <t>53 0e</t>
         </is>
       </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>19.718892000</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5698,6 +6178,11 @@
           <t>91 67</t>
         </is>
       </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>19.719916000</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5753,6 +6238,11 @@
           <t>35 08</t>
         </is>
       </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>19.815660000</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5808,6 +6298,11 @@
           <t>96 46</t>
         </is>
       </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>19.816682000</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5863,6 +6358,11 @@
           <t>45 ba</t>
         </is>
       </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>19.817705000</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5916,6 +6416,11 @@
       <c r="K101" t="inlineStr">
         <is>
           <t>b2 2a</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>19.818730000</t>
         </is>
       </c>
     </row>
